--- a/Project Development Phase/User Acceptance Testing/UAT Testcases Report.xlsx
+++ b/Project Development Phase/User Acceptance Testing/UAT Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512E61C-BDA6-41B1-8FC6-C7740453D63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DA54E-8123-4A53-9B8F-20408C0F7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="190">
   <si>
     <t>Test case ID</t>
   </si>
@@ -679,6 +679,45 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>The App is hosted.</t>
+  </si>
+  <si>
+    <t>The Application is hosted.</t>
+  </si>
+  <si>
+    <t>Google Login must be implemened.</t>
+  </si>
+  <si>
+    <t>Facebook Login must be implemented.</t>
+  </si>
+  <si>
+    <t>UI Components must be embedded.</t>
+  </si>
+  <si>
+    <t>Google Auth must be implemented.</t>
+  </si>
+  <si>
+    <t>Facebook Auth must be implemented.</t>
+  </si>
+  <si>
+    <t>Realtime Database must be hosted. And the application must be connected to database.</t>
+  </si>
+  <si>
+    <t>NodeRED must be configured.</t>
+  </si>
+  <si>
+    <t>SMS Notification Alert System must be implemented.</t>
+  </si>
+  <si>
+    <t>Service Request option must be implemented.</t>
+  </si>
+  <si>
+    <t>Account Signout Feature must be implemented.</t>
+  </si>
+  <si>
+    <t>Mobile Application must be developed and installed.Mobile application must be connected with NodeRED using HTTP Requests.</t>
   </si>
 </sst>
 </file>
@@ -991,6 +1030,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,9 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2954,8 +2993,8 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2965,7 +3004,7 @@
     <col min="3" max="3" width="11" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.88671875" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="35" customWidth="1"/>
     <col min="7" max="7" width="25.109375" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="34" bestFit="1" customWidth="1"/>
@@ -2978,84 +3017,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="16">
         <v>44879</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14" s="14" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -3114,7 +3153,9 @@
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F6" s="18" t="s">
         <v>132</v>
       </c>
@@ -3152,7 +3193,9 @@
       <c r="D7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
@@ -3190,7 +3233,9 @@
       <c r="D8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="F8" s="28" t="s">
         <v>43</v>
       </c>
@@ -3460,7 +3505,9 @@
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F15" s="6" t="s">
         <v>72</v>
       </c>
@@ -3536,7 +3583,9 @@
       <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>78</v>
       </c>
@@ -3574,7 +3623,9 @@
       <c r="D18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>80</v>
       </c>
@@ -3612,7 +3663,9 @@
       <c r="D19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F19" s="23" t="s">
         <v>84</v>
       </c>
@@ -3690,7 +3743,9 @@
       <c r="D21" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F21" s="28" t="s">
         <v>95</v>
       </c>
@@ -3728,7 +3783,9 @@
       <c r="D22" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F22" s="28" t="s">
         <v>96</v>
       </c>
@@ -3846,7 +3903,9 @@
       <c r="D25" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="F25" s="28" t="s">
         <v>103</v>
       </c>
@@ -3884,7 +3943,9 @@
       <c r="D26" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="F26" s="28" t="s">
         <v>104</v>
       </c>
@@ -3909,7 +3970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -3922,7 +3983,9 @@
       <c r="D27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="s">
@@ -3956,7 +4019,9 @@
       <c r="D28" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F28" s="23" t="s">
         <v>144</v>
       </c>
@@ -3992,7 +4057,9 @@
       <c r="D29" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="F29" s="28" t="s">
         <v>134</v>
       </c>
@@ -4028,7 +4095,9 @@
       <c r="D30" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="F30" s="6" t="s">
         <v>134</v>
       </c>
@@ -4064,7 +4133,9 @@
       <c r="D31" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="F31" s="6" t="s">
         <v>134</v>
       </c>
@@ -4100,7 +4171,9 @@
       <c r="D32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="F32" s="6" t="s">
         <v>134</v>
       </c>
@@ -4136,7 +4209,9 @@
       <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -4170,7 +4245,9 @@
       <c r="D34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F34" s="6" t="s">
         <v>152</v>
       </c>
@@ -4206,7 +4283,9 @@
       <c r="D35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F35" s="6" t="s">
         <v>153</v>
       </c>
@@ -4242,7 +4321,9 @@
       <c r="D36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F36" s="6" t="s">
         <v>155</v>
       </c>
@@ -4278,7 +4359,9 @@
       <c r="D37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F37" s="6" t="s">
         <v>157</v>
       </c>
@@ -4314,7 +4397,9 @@
       <c r="D38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="F38" s="6" t="s">
         <v>161</v>
       </c>
@@ -4350,7 +4435,9 @@
       <c r="D39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="F39" s="6" t="s">
         <v>165</v>
       </c>
@@ -4375,7 +4462,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -4388,7 +4475,9 @@
       <c r="D40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="F40" s="6" t="s">
         <v>165</v>
       </c>
@@ -4426,7 +4515,9 @@
       <c r="D41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
